--- a/Circuits power values.xlsx
+++ b/Circuits power values.xlsx
@@ -45,13 +45,13 @@
     <t>CMOS Inverter (charu)</t>
   </si>
   <si>
-    <t>Vahini Leakage Power(W)</t>
-  </si>
-  <si>
     <t>Vahini Usage TCL  Avg. Power (W)</t>
   </si>
   <si>
-    <t>Vahini  Avg. Switching power(W)</t>
+    <t>Vahini TCL leakage  power (W)</t>
+  </si>
+  <si>
+    <t>Vahini TCL power (W)</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +422,7 @@
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -450,7 +450,7 @@
         <v>1.4886853000000001E-6</v>
       </c>
       <c r="D2" s="5">
-        <v>6.3359999999999996E-10</v>
+        <v>6.3362710000000002E-10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -461,10 +461,10 @@
         <v>3.4582999999999997E-5</v>
       </c>
       <c r="C3" s="5">
-        <v>3.3993633999999999E-5</v>
+        <v>3.7827112599999998E-5</v>
       </c>
       <c r="D3" s="5">
-        <v>4.0089999999999997E-9</v>
+        <v>4.0092519999999998E-9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
         <v>6.4545E-12</v>
       </c>
       <c r="C7" s="5">
-        <v>5.7746338000000002E-12</v>
+        <v>3.9566081599999999E-12</v>
       </c>
       <c r="D7" s="5">
         <v>6.5156170000000003E-12</v>
@@ -534,7 +534,7 @@
         <v>3.0639335999999999E-12</v>
       </c>
       <c r="D8" s="5">
-        <v>1.3032E-11</v>
+        <v>1.3031239999999999E-11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">

--- a/Circuits power values.xlsx
+++ b/Circuits power values.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
